--- a/data-raw/SykehusNavnStruktur.xlsx
+++ b/data-raw/SykehusNavnStruktur.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13575"/>
   </bookViews>
   <sheets>
     <sheet name="orgnr" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orgnr!$C$1:$J$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orgnr!$A$1:$J$148</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="399">
   <si>
     <t>OrgNrRHF</t>
   </si>
@@ -47,6 +47,9 @@
     <t>OrgNavnEnhetsreg</t>
   </si>
   <si>
+    <t>SykehusnavnLang</t>
+  </si>
+  <si>
     <t>SykehusNavn</t>
   </si>
   <si>
@@ -1157,76 +1160,70 @@
     <t>Hfkortnavn</t>
   </si>
   <si>
+    <t>Priv? Betanien</t>
+  </si>
+  <si>
+    <t>Priv? Diakonhjemmet</t>
+  </si>
+  <si>
     <t>Finnmark</t>
   </si>
   <si>
+    <t>Priv? Haraldsplass</t>
+  </si>
+  <si>
+    <t>Priv? Haugesund sanitet</t>
+  </si>
+  <si>
+    <t>Helgeland</t>
+  </si>
+  <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>Fonna</t>
+  </si>
+  <si>
+    <t>Møre og Romsdal</t>
+  </si>
+  <si>
+    <t>Nord-Trøndelag</t>
+  </si>
+  <si>
+    <t>Priv? Lovisenberg</t>
+  </si>
+  <si>
     <t>Nordland</t>
   </si>
   <si>
+    <t>OUS</t>
+  </si>
+  <si>
+    <t>St. Olavs</t>
+  </si>
+  <si>
+    <t>Priv? Sunnaas</t>
+  </si>
+  <si>
+    <t>Vestfold</t>
+  </si>
+  <si>
+    <t>Innlandet</t>
+  </si>
+  <si>
+    <t>Telemark</t>
+  </si>
+  <si>
+    <t>Østfold</t>
+  </si>
+  <si>
+    <t>Sørlandet</t>
+  </si>
+  <si>
     <t>UNN</t>
   </si>
   <si>
-    <t>Helgeland</t>
-  </si>
-  <si>
-    <t>St. Olavs</t>
-  </si>
-  <si>
-    <t>Nord-Trøndelag</t>
-  </si>
-  <si>
-    <t>Møre og Romsdal</t>
-  </si>
-  <si>
-    <t>Bergen</t>
-  </si>
-  <si>
-    <t>Fonna</t>
-  </si>
-  <si>
-    <t>Telemark</t>
-  </si>
-  <si>
-    <t>Priv? Haraldsplass</t>
-  </si>
-  <si>
-    <t>Priv? Betanien</t>
-  </si>
-  <si>
-    <t>Priv? Haugesund sanitet</t>
-  </si>
-  <si>
     <t>Vestre Viken</t>
-  </si>
-  <si>
-    <t>Innlandet</t>
-  </si>
-  <si>
-    <t>OUS</t>
-  </si>
-  <si>
-    <t>Priv? Sunnaas</t>
-  </si>
-  <si>
-    <t>Østfold</t>
-  </si>
-  <si>
-    <t>Vestfold</t>
-  </si>
-  <si>
-    <t>Sørlandet</t>
-  </si>
-  <si>
-    <t>Priv? Diakonhjemmet</t>
-  </si>
-  <si>
-    <t>Priv? Lovisenberg</t>
-  </si>
-  <si>
-    <t>SykehusNavnLang</t>
-  </si>
-  <si>
-    <t>Haugesund sanitet revma.</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1537,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1546,13 +1545,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>398</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1573,32 +1572,32 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>883658752</v>
+      <c r="A2" s="5">
+        <v>991324968</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="C2" s="4">
         <v>983971636</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F2" s="4">
         <v>974705192</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -1622,32 +1621,32 @@
       <c r="AA2" s="4"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>883658752</v>
+      <c r="A3" s="5">
+        <v>991324968</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4">
         <v>983971636</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F3" s="4">
         <v>974706490</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J3" s="4">
         <v>1</v>
@@ -1671,32 +1670,32 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>883658752</v>
+      <c r="A4" s="5">
+        <v>991324968</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4">
         <v>983971636</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F4" s="4">
         <v>974631776</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
@@ -1720,35 +1719,35 @@
       <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
+      <c r="A5" s="6">
+        <v>999</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C5" s="4">
-        <v>997005562</v>
+        <v>943545634</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>85</v>
+        <v>307</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="F5" s="4">
-        <v>974577054</v>
+        <v>974518821</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>87</v>
+        <v>309</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="J5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1769,32 +1768,32 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
+      <c r="A6" s="6">
+        <v>999</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C6" s="4">
-        <v>922716552</v>
+        <v>943545634</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>156</v>
+        <v>307</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="F6" s="4">
-        <v>974737779</v>
+        <v>879790522</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>158</v>
+        <v>309</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>159</v>
+        <v>312</v>
       </c>
       <c r="J6" s="4">
         <v>1</v>
@@ -1818,32 +1817,32 @@
       <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
+      <c r="A7" s="6">
+        <v>999</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C7" s="4">
-        <v>894166762</v>
+        <v>943545634</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="F7" s="4">
-        <v>974705788</v>
+        <v>813381192</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>165</v>
+        <v>313</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
@@ -1867,32 +1866,32 @@
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
+      <c r="A8" s="6">
+        <v>999</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C8" s="4">
-        <v>982791952</v>
+        <v>943545634</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="F8" s="4">
-        <v>974116804</v>
+        <v>879595762</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -1916,32 +1915,32 @@
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
+      <c r="A9" s="6">
+        <v>999</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C9" s="4">
-        <v>894166762</v>
+        <v>943545634</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="F9" s="4">
-        <v>974631326</v>
+        <v>919729333</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>170</v>
+        <v>318</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
@@ -1965,35 +1964,35 @@
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
+      <c r="A10" s="6">
+        <v>999</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C10" s="4">
-        <v>894166762</v>
+        <v>943545634</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="F10" s="4">
-        <v>974606305</v>
+        <v>975787419</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>171</v>
+        <v>319</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2014,32 +2013,32 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
+      <c r="A11" s="6">
+        <v>999</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C11" s="4">
-        <v>983974732</v>
+        <v>943545634</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>112</v>
+        <v>309</v>
       </c>
       <c r="F11" s="4">
-        <v>974743914</v>
+        <v>981541499</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>107</v>
+        <v>321</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
@@ -2063,32 +2062,32 @@
       <c r="AA11" s="4"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
+      <c r="A12" s="6">
+        <v>999</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C12" s="4">
-        <v>983974732</v>
+        <v>943545634</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>112</v>
+        <v>309</v>
       </c>
       <c r="F12" s="4">
-        <v>974744570</v>
+        <v>972149519</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>110</v>
+        <v>323</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>111</v>
+        <v>309</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>112</v>
+        <v>324</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
@@ -2112,32 +2111,32 @@
       <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
+      <c r="A13" s="6">
+        <v>999</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C13" s="4">
-        <v>984027737</v>
+        <v>943545634</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>386</v>
+        <v>309</v>
       </c>
       <c r="F13" s="4">
-        <v>974316285</v>
+        <v>974504863</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>133</v>
+        <v>325</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>134</v>
+        <v>326</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
@@ -2161,32 +2160,32 @@
       <c r="AA13" s="4"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
+      <c r="A14" s="6">
+        <v>999</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C14" s="4">
-        <v>986106839</v>
+        <v>943545634</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>160</v>
+        <v>307</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="F14" s="4">
-        <v>973156829</v>
+        <v>983896383</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
@@ -2210,32 +2209,32 @@
       <c r="AA14" s="4"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
+      <c r="A15" s="6">
+        <v>999</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C15" s="4">
-        <v>983974694</v>
+        <v>943545634</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>135</v>
+        <v>307</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>384</v>
+        <v>309</v>
       </c>
       <c r="F15" s="4">
-        <v>974724774</v>
+        <v>993240184</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>136</v>
+        <v>329</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>137</v>
+        <v>309</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
@@ -2259,35 +2258,35 @@
       <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
+      <c r="A16" s="6">
+        <v>999</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C16" s="4">
-        <v>983974694</v>
+        <v>943545634</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>135</v>
+        <v>307</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>384</v>
+        <v>309</v>
       </c>
       <c r="F16" s="4">
-        <v>976248570</v>
+        <v>981096363</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>139</v>
+        <v>331</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>137</v>
+        <v>309</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>138</v>
+        <v>332</v>
       </c>
       <c r="J16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2308,32 +2307,32 @@
       <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>8</v>
+      <c r="A17" s="6">
+        <v>999</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C17" s="4">
-        <v>983974724</v>
+        <v>943545634</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="F17" s="4">
-        <v>974557746</v>
+        <v>995818728</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>120</v>
+        <v>333</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>122</v>
+        <v>334</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
@@ -2357,35 +2356,35 @@
       <c r="AA17" s="4"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>883658752</v>
+      <c r="A18" s="5">
+        <v>983658725</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C18" s="4">
-        <v>983974724</v>
+        <v>922716552</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F18" s="4">
-        <v>997512189</v>
+        <v>974737779</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="J18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2406,35 +2405,35 @@
       <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>8</v>
+      <c r="A19" s="6">
+        <v>999</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C19" s="4">
-        <v>983974724</v>
+        <v>914491908</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>119</v>
+        <v>367</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="F19" s="4">
-        <v>973923811</v>
+        <v>914607493</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>124</v>
+        <v>367</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>122</v>
+        <v>368</v>
       </c>
       <c r="J19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -2455,35 +2454,35 @@
       <c r="AA19" s="4"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>883658752</v>
+      <c r="A20" s="5">
+        <v>991324968</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="C20" s="4">
-        <v>983974724</v>
+        <v>982791952</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>119</v>
+        <v>300</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F20" s="4">
-        <v>974557169</v>
+        <v>974116804</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="J20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2504,35 +2503,35 @@
       <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>883658752</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
+      <c r="A21" s="6">
+        <v>999</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C21" s="4">
-        <v>983974724</v>
+        <v>924291370</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>119</v>
+        <v>371</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="F21" s="4">
-        <v>996663191</v>
+        <v>971937548</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>126</v>
+        <v>371</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="J21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2553,32 +2552,32 @@
       <c r="AA21" s="4"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>983658776</v>
+      <c r="A22" s="4">
+        <v>883658752</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4">
-        <v>983974929</v>
+        <v>983974880</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>379</v>
       </c>
       <c r="F22" s="4">
-        <v>974795515</v>
+        <v>974285959</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
@@ -2602,32 +2601,32 @@
       <c r="AA22" s="4"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>983658776</v>
+      <c r="A23" s="4">
+        <v>883658752</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4">
-        <v>983974929</v>
+        <v>983974880</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>379</v>
       </c>
       <c r="F23" s="4">
-        <v>974795485</v>
+        <v>974795833</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J23" s="4">
         <v>1</v>
@@ -2651,32 +2650,32 @@
       <c r="AA23" s="4"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>983658776</v>
+      <c r="A24" s="4">
+        <v>883658752</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4">
-        <v>983974929</v>
+        <v>983974880</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>379</v>
       </c>
       <c r="F24" s="4">
-        <v>874044342</v>
+        <v>979873190</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
@@ -2700,32 +2699,32 @@
       <c r="AA24" s="4"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>983658776</v>
+      <c r="A25" s="4">
+        <v>883658752</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4">
-        <v>983974929</v>
+        <v>983974880</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>379</v>
       </c>
       <c r="F25" s="4">
-        <v>974795477</v>
+        <v>974795930</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J25" s="4">
         <v>1</v>
@@ -2750,31 +2749,31 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C26" s="4">
-        <v>983974678</v>
+        <v>984027737</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>153</v>
+        <v>380</v>
       </c>
       <c r="F26" s="4">
-        <v>974703327</v>
+        <v>974316285</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="J26" s="4">
         <v>1</v>
@@ -2799,31 +2798,31 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C27" s="4">
-        <v>983974880</v>
+        <v>986106839</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F27" s="4">
-        <v>974285959</v>
+        <v>973156829</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
@@ -2847,32 +2846,32 @@
       <c r="AA27" s="4"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>983658776</v>
+      <c r="A28" s="4">
+        <v>883658752</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C28" s="4">
-        <v>983974880</v>
+        <v>983974929</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F28" s="4">
-        <v>974795833</v>
+        <v>974795515</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="J28" s="4">
         <v>1</v>
@@ -2896,32 +2895,32 @@
       <c r="AA28" s="4"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>983658776</v>
+      <c r="A29" s="4">
+        <v>883658752</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4">
-        <v>983974880</v>
+        <v>983974929</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F29" s="4">
-        <v>979873190</v>
+        <v>974795485</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
@@ -2945,32 +2944,32 @@
       <c r="AA29" s="4"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>983658776</v>
+      <c r="A30" s="4">
+        <v>883658752</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C30" s="4">
-        <v>983974880</v>
+        <v>983974929</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F30" s="4">
-        <v>974795930</v>
+        <v>874044342</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J30" s="4">
         <v>1</v>
@@ -2994,32 +2993,32 @@
       <c r="AA30" s="4"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>983658776</v>
+      <c r="A31" s="4">
+        <v>883658752</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4">
+        <v>983974929</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F31" s="4">
+        <v>974795477</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="4">
-        <v>894166762</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="F31" s="4">
-        <v>974631385</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="H31" s="4" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
@@ -3044,31 +3043,31 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C32" s="4">
-        <v>997005562</v>
+        <v>983974724</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F32" s="4">
-        <v>974746948</v>
+        <v>974557746</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="J32" s="4">
         <v>1</v>
@@ -3093,34 +3092,34 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C33" s="4">
         <v>983974724</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>383</v>
       </c>
       <c r="F33" s="4">
-        <v>874743372</v>
+        <v>997512189</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -3142,34 +3141,34 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C34" s="4">
-        <v>965985166</v>
+        <v>983974724</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="F34" s="4">
-        <v>974207532</v>
+        <v>973923811</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>302</v>
+        <v>122</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="J34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -3191,34 +3190,34 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C35" s="4">
-        <v>983974732</v>
+        <v>983974724</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>112</v>
+        <v>383</v>
       </c>
       <c r="F35" s="4">
-        <v>974745089</v>
+        <v>974557169</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="J35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -3240,34 +3239,34 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C36" s="4">
-        <v>997005562</v>
+        <v>983974724</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F36" s="4">
-        <v>974745569</v>
+        <v>996663191</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="J36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -3289,34 +3288,34 @@
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C37" s="4">
-        <v>997005562</v>
+        <v>983974724</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F37" s="4">
-        <v>984038135</v>
+        <v>874743372</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="J37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -3338,34 +3337,34 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C38" s="4">
-        <v>997005562</v>
+        <v>983974724</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F38" s="4">
-        <v>974577216</v>
+        <v>974743272</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="J38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -3387,31 +3386,31 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C39" s="4">
-        <v>983974910</v>
+        <v>983974694</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F39" s="4">
-        <v>974795361</v>
+        <v>974724774</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="J39" s="4">
         <v>1</v>
@@ -3436,31 +3435,31 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C40" s="4">
-        <v>983974910</v>
+        <v>983974694</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F40" s="4">
-        <v>993562718</v>
+        <v>976248570</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="J40" s="4">
         <v>0</v>
@@ -3485,31 +3484,31 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C41" s="4">
-        <v>983974910</v>
+        <v>983974694</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F41" s="4">
-        <v>974795558</v>
+        <v>974743086</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="J41" s="4">
         <v>1</v>
@@ -3534,34 +3533,34 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C42" s="4">
-        <v>983974910</v>
+        <v>983974694</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F42" s="4">
-        <v>993573159</v>
+        <v>974742985</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="J42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -3583,34 +3582,34 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>983658776</v>
+        <v>983658725</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C43" s="4">
-        <v>983974910</v>
+        <v>983974694</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F43" s="4">
-        <v>974795574</v>
+        <v>996328112</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="J43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -3635,31 +3634,31 @@
         <v>983658725</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="4">
-        <v>983974910</v>
+        <v>983974732</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>377</v>
+        <v>113</v>
       </c>
       <c r="F44" s="4">
-        <v>996722201</v>
+        <v>974743914</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="J44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -3684,28 +3683,28 @@
         <v>983658725</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="4">
         <v>983974732</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="4">
+        <v>974744570</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F45" s="4">
-        <v>974745364</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="I45" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J45" s="4">
         <v>1</v>
@@ -3733,28 +3732,28 @@
         <v>983658725</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="4">
-        <v>983974694</v>
+        <v>983974732</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>384</v>
+        <v>113</v>
       </c>
       <c r="F46" s="4">
-        <v>974743086</v>
+        <v>974745089</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="J46" s="4">
         <v>1</v>
@@ -3782,28 +3781,28 @@
         <v>983658725</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="4">
-        <v>993467049</v>
+        <v>983974732</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>391</v>
+        <v>113</v>
       </c>
       <c r="F47" s="4">
-        <v>974588951</v>
+        <v>974745364</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="J47" s="4">
         <v>1</v>
@@ -3828,34 +3827,34 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C48" s="4">
-        <v>993467049</v>
+        <v>997005562</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F48" s="4">
-        <v>974728230</v>
+        <v>974577054</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="J48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -3877,31 +3876,31 @@
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C49" s="4">
-        <v>993467049</v>
+        <v>997005562</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F49" s="4">
-        <v>975298744</v>
+        <v>974746948</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="J49" s="4">
         <v>1</v>
@@ -3926,31 +3925,31 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C50" s="4">
-        <v>993467049</v>
+        <v>997005562</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F50" s="4">
-        <v>974589087</v>
+        <v>974745569</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="J50" s="4">
         <v>1</v>
@@ -3975,34 +3974,34 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C51" s="4">
-        <v>993467049</v>
+        <v>997005562</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F51" s="4">
-        <v>974707152</v>
+        <v>984038135</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>244</v>
+        <v>93</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>245</v>
+        <v>94</v>
       </c>
       <c r="J51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -4024,34 +4023,34 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C52" s="4">
-        <v>993467049</v>
+        <v>997005562</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F52" s="4">
-        <v>874716782</v>
+        <v>974577216</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>248</v>
+        <v>97</v>
       </c>
       <c r="J52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -4073,31 +4072,31 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C53" s="4">
-        <v>993467049</v>
+        <v>997005562</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F53" s="4">
-        <v>974705761</v>
+        <v>974747545</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="J53" s="4">
         <v>1</v>
@@ -4122,31 +4121,31 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C54" s="4">
-        <v>993467049</v>
+        <v>997005562</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F54" s="4">
-        <v>974589095</v>
+        <v>974747138</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>253</v>
+        <v>102</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="J54" s="4">
         <v>1</v>
@@ -4171,34 +4170,34 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C55" s="4">
-        <v>943545634</v>
+        <v>997005562</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>306</v>
+        <v>86</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>308</v>
+        <v>385</v>
       </c>
       <c r="F55" s="4">
-        <v>974518821</v>
+        <v>912777294</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>307</v>
+        <v>104</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>309</v>
+        <v>102</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="J55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -4220,34 +4219,34 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="4">
+        <v>997005562</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F56" s="4">
+        <v>916126611</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="4">
-        <v>943545634</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F56" s="4">
-        <v>879790522</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>310</v>
-      </c>
       <c r="H56" s="4" t="s">
-        <v>311</v>
+        <v>102</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="J56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -4269,31 +4268,31 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C57" s="4">
-        <v>943545634</v>
+        <v>983974791</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>306</v>
+        <v>57</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="F57" s="4">
-        <v>813381192</v>
+        <v>974754118</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>312</v>
+        <v>58</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>313</v>
+        <v>59</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>305</v>
+        <v>60</v>
       </c>
       <c r="J57" s="4">
         <v>1</v>
@@ -4318,34 +4317,34 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C58" s="4">
-        <v>943545634</v>
+        <v>983974791</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>306</v>
+        <v>57</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="F58" s="4">
-        <v>879595762</v>
+        <v>994958682</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>314</v>
+        <v>61</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>315</v>
+        <v>59</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>305</v>
+        <v>60</v>
       </c>
       <c r="J58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -4367,31 +4366,31 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C59" s="4">
-        <v>943545634</v>
+        <v>983974791</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>306</v>
+        <v>57</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="F59" s="4">
-        <v>919729333</v>
+        <v>974753898</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>316</v>
+        <v>62</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>317</v>
+        <v>63</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="J59" s="4">
         <v>1</v>
@@ -4416,34 +4415,34 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>983658725</v>
+        <v>983658776</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C60" s="4">
-        <v>943545634</v>
+        <v>983974791</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>306</v>
+        <v>57</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="F60" s="4">
-        <v>975787419</v>
+        <v>994974270</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>318</v>
+        <v>65</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="J60" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -4468,28 +4467,28 @@
         <v>983658725</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C61" s="4">
-        <v>943545634</v>
+        <v>983974678</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>306</v>
+        <v>148</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="F61" s="4">
-        <v>981541499</v>
+        <v>974703327</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>320</v>
+        <v>149</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>321</v>
+        <v>150</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>305</v>
+        <v>151</v>
       </c>
       <c r="J61" s="4">
         <v>1</v>
@@ -4517,28 +4516,28 @@
         <v>983658725</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C62" s="4">
-        <v>943545634</v>
+        <v>983974678</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>306</v>
+        <v>148</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="F62" s="4">
-        <v>972149519</v>
+        <v>974703300</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>322</v>
+        <v>152</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>323</v>
+        <v>153</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="J62" s="4">
         <v>1</v>
@@ -4566,31 +4565,31 @@
         <v>983658725</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C63" s="4">
-        <v>943545634</v>
+        <v>983974678</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>306</v>
+        <v>148</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="F63" s="4">
-        <v>974504863</v>
+        <v>873862122</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>324</v>
+        <v>155</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>325</v>
+        <v>153</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="J63" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -4615,31 +4614,31 @@
         <v>983658725</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C64" s="4">
-        <v>943545634</v>
+        <v>983974678</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>306</v>
+        <v>148</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="F64" s="4">
-        <v>983896383</v>
+        <v>974624680</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>326</v>
+        <v>156</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>327</v>
+        <v>153</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="J64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -4660,32 +4659,32 @@
       <c r="AA64" s="4"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>983658725</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>105</v>
+      <c r="A65" s="6">
+        <v>999</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C65" s="4">
-        <v>943545634</v>
+        <v>915378404</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>306</v>
+        <v>369</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F65" s="4">
-        <v>993240184</v>
+        <v>915411223</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="J65" s="4">
         <v>1</v>
@@ -4709,32 +4708,32 @@
       <c r="AA65" s="4"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>983658725</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>105</v>
+      <c r="A66" s="6">
+        <v>999</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C66" s="4">
-        <v>943545634</v>
+        <v>940190738</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F66" s="4">
-        <v>981096363</v>
+        <v>973144383</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="J66" s="4">
         <v>1</v>
@@ -4758,32 +4757,32 @@
       <c r="AA66" s="4"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>991324968</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>163</v>
+      <c r="A67" s="6">
+        <v>999</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C67" s="4">
-        <v>943545634</v>
+        <v>940190738</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F67" s="4">
-        <v>995818728</v>
+        <v>920248829</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="J67" s="4">
         <v>1</v>
@@ -4807,32 +4806,32 @@
       <c r="AA67" s="4"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>991324968</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>163</v>
+      <c r="A68" s="6">
+        <v>999</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C68" s="4">
-        <v>893140832</v>
+        <v>940190738</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F68" s="4">
-        <v>993198846</v>
+        <v>995111209</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="J68" s="4">
         <v>1</v>
@@ -4860,25 +4859,25 @@
         <v>991324968</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" s="4">
-        <v>914491908</v>
+        <v>965985166</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="F69" s="4">
-        <v>914607493</v>
+        <v>974207532</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>305</v>
@@ -4905,32 +4904,32 @@
       <c r="AA69" s="4"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>991324968</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>163</v>
+      <c r="A70" s="6">
+        <v>999</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C70" s="4">
-        <v>924291370</v>
+        <v>980693732</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F70" s="4">
-        <v>971937548</v>
+        <v>817178782</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="J70" s="4">
         <v>1</v>
@@ -4954,32 +4953,32 @@
       <c r="AA70" s="4"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>991324968</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>163</v>
+      <c r="A71" s="6">
+        <v>999</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C71" s="4">
-        <v>915378404</v>
+        <v>980693732</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F71" s="4">
-        <v>915411223</v>
+        <v>912011135</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>305</v>
+        <v>364</v>
       </c>
       <c r="J71" s="4">
         <v>1</v>
@@ -5003,32 +5002,32 @@
       <c r="AA71" s="4"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>991324968</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>163</v>
+      <c r="A72" s="6">
+        <v>999</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C72" s="4">
-        <v>940190738</v>
+        <v>999238351</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F72" s="4">
-        <v>973144383</v>
+        <v>972140295</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>305</v>
+        <v>375</v>
       </c>
       <c r="J72" s="4">
         <v>1</v>
@@ -5052,32 +5051,32 @@
       <c r="AA72" s="4"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>991324968</v>
+      <c r="A73" s="4">
+        <v>883658752</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C73" s="4">
-        <v>940190738</v>
+        <v>983974910</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>352</v>
+        <v>32</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="F73" s="4">
-        <v>920248829</v>
+        <v>974795361</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>355</v>
+        <v>33</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>356</v>
+        <v>34</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="J73" s="4">
         <v>1</v>
@@ -5101,35 +5100,35 @@
       <c r="AA73" s="4"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>991324968</v>
+      <c r="A74" s="4">
+        <v>883658752</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C74" s="4">
-        <v>940190738</v>
+        <v>983974910</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>352</v>
+        <v>32</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="F74" s="4">
-        <v>995111209</v>
+        <v>993562718</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>357</v>
+        <v>36</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>358</v>
+        <v>34</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="J74" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -5150,32 +5149,32 @@
       <c r="AA74" s="4"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>991324968</v>
+      <c r="A75" s="4">
+        <v>883658752</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C75" s="4">
-        <v>980693732</v>
+        <v>983974910</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>359</v>
+        <v>32</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="F75" s="4">
-        <v>817178782</v>
+        <v>974795558</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>360</v>
+        <v>37</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>361</v>
+        <v>38</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>305</v>
+        <v>39</v>
       </c>
       <c r="J75" s="4">
         <v>1</v>
@@ -5199,35 +5198,35 @@
       <c r="AA75" s="4"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>991324968</v>
+      <c r="A76" s="4">
+        <v>883658752</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C76" s="4">
-        <v>980693732</v>
+        <v>983974910</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>359</v>
+        <v>32</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="F76" s="4">
-        <v>912011135</v>
+        <v>993573159</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>362</v>
+        <v>40</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>305</v>
+        <v>39</v>
       </c>
       <c r="J76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -5248,32 +5247,32 @@
       <c r="AA76" s="4"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>991324968</v>
+      <c r="A77" s="4">
+        <v>883658752</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C77" s="4">
-        <v>999238351</v>
+        <v>983974910</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="F77" s="4">
-        <v>972140295</v>
+        <v>974795574</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>373</v>
+        <v>41</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>305</v>
+        <v>43</v>
       </c>
       <c r="J77" s="4">
         <v>1</v>
@@ -5297,35 +5296,35 @@
       <c r="AA77" s="4"/>
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>991324968</v>
+      <c r="A78" s="4">
+        <v>883658752</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C78" s="4">
-        <v>816085292</v>
+        <v>983974910</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="F78" s="4">
-        <v>982755999</v>
+        <v>996722201</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>336</v>
+        <v>42</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>305</v>
+        <v>43</v>
       </c>
       <c r="J78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -5350,28 +5349,28 @@
         <v>991324968</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C79" s="4">
-        <v>816085292</v>
+        <v>993467049</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>334</v>
+        <v>231</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="F79" s="4">
-        <v>983084478</v>
+        <v>974588951</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>337</v>
+        <v>232</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>338</v>
+        <v>233</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>305</v>
+        <v>234</v>
       </c>
       <c r="J79" s="4">
         <v>1</v>
@@ -5399,28 +5398,28 @@
         <v>991324968</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C80" s="4">
-        <v>953164701</v>
+        <v>993467049</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="F80" s="4">
-        <v>973129856</v>
+        <v>974728230</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>341</v>
+        <v>236</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="J80" s="4">
         <v>1</v>
@@ -5448,28 +5447,28 @@
         <v>991324968</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" s="4">
-        <v>953164701</v>
+        <v>993467049</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="F81" s="4">
-        <v>912419223</v>
+        <v>975298744</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>342</v>
+        <v>238</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>343</v>
+        <v>239</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>305</v>
+        <v>240</v>
       </c>
       <c r="J81" s="4">
         <v>1</v>
@@ -5497,28 +5496,28 @@
         <v>991324968</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" s="4">
-        <v>953164701</v>
+        <v>993467049</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="F82" s="4">
-        <v>974183749</v>
+        <v>974589087</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>344</v>
+        <v>241</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>345</v>
+        <v>242</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="J82" s="4">
         <v>1</v>
@@ -5546,28 +5545,28 @@
         <v>991324968</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C83" s="4">
-        <v>953164701</v>
+        <v>993467049</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="F83" s="4">
-        <v>918289593</v>
+        <v>974707152</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>346</v>
+        <v>244</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="J83" s="4">
         <v>1</v>
@@ -5595,28 +5594,28 @@
         <v>991324968</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C84" s="4">
-        <v>953164701</v>
+        <v>993467049</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="F84" s="4">
-        <v>919749547</v>
+        <v>874716782</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>348</v>
+        <v>247</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>349</v>
+        <v>248</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="J84" s="4">
         <v>1</v>
@@ -5644,28 +5643,28 @@
         <v>991324968</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C85" s="4">
-        <v>953164701</v>
+        <v>993467049</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="F85" s="4">
-        <v>976343506</v>
+        <v>974705761</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="J85" s="4">
         <v>1</v>
@@ -5693,28 +5692,28 @@
         <v>991324968</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C86" s="4">
-        <v>894166762</v>
+        <v>993467049</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>389</v>
       </c>
       <c r="F86" s="4">
-        <v>974631407</v>
+        <v>974589095</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="J86" s="4">
         <v>1</v>
@@ -5739,34 +5738,34 @@
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>991324968</v>
+        <v>983658776</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="C87" s="4">
-        <v>894166762</v>
+        <v>883974832</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F87" s="4">
-        <v>874606162</v>
+        <v>995413388</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="J87" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
@@ -5788,34 +5787,34 @@
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>991324968</v>
+        <v>983658776</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="C88" s="4">
         <v>883974832</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F88" s="4">
-        <v>995413388</v>
+        <v>974329506</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J88" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -5837,31 +5836,31 @@
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>991324968</v>
+        <v>983658776</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="C89" s="4">
         <v>883974832</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F89" s="4">
-        <v>974329506</v>
+        <v>974749505</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J89" s="4">
         <v>1</v>
@@ -5886,31 +5885,31 @@
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>991324968</v>
+        <v>983658776</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="C90" s="4">
         <v>883974832</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F90" s="4">
-        <v>974749505</v>
+        <v>974749025</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J90" s="4">
         <v>1</v>
@@ -5935,34 +5934,34 @@
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>991324968</v>
+        <v>983658776</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="C91" s="4">
         <v>883974832</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F91" s="4">
-        <v>974749025</v>
+        <v>913461223</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J91" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -5984,31 +5983,31 @@
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>991324968</v>
+        <v>983658776</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="C92" s="4">
         <v>883974832</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F92" s="4">
-        <v>913461223</v>
+        <v>974749815</v>
       </c>
       <c r="G92" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="J92" s="4">
         <v>0</v>
@@ -6033,31 +6032,31 @@
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>991324968</v>
+        <v>983658776</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="C93" s="4">
         <v>883974832</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F93" s="4">
-        <v>974749815</v>
+        <v>973254782</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J93" s="4">
         <v>0</v>
@@ -6082,31 +6081,31 @@
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>991324968</v>
+        <v>983658776</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="C94" s="4">
         <v>883974832</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F94" s="4">
-        <v>973254782</v>
+        <v>920196357</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J94" s="4">
         <v>0</v>
@@ -6131,34 +6130,34 @@
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>991324968</v>
+        <v>983658776</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="C95" s="4">
         <v>883974832</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F95" s="4">
-        <v>920196357</v>
+        <v>915621457</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J95" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -6179,32 +6178,32 @@
       <c r="AA95" s="4"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>991324968</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>163</v>
+      <c r="A96" s="6">
+        <v>999</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C96" s="4">
-        <v>883974832</v>
+        <v>893140832</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>65</v>
+        <v>365</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>380</v>
+        <v>309</v>
       </c>
       <c r="F96" s="4">
-        <v>915621457</v>
+        <v>993198846</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="J96" s="4">
         <v>1</v>
@@ -6232,28 +6231,28 @@
         <v>991324968</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C97" s="4">
-        <v>983974678</v>
+        <v>883971752</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>153</v>
+        <v>391</v>
       </c>
       <c r="F97" s="4">
-        <v>974703300</v>
+        <v>974589214</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="J97" s="4">
         <v>1</v>
@@ -6281,31 +6280,31 @@
         <v>991324968</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C98" s="4">
-        <v>983974678</v>
+        <v>883971752</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>153</v>
+        <v>391</v>
       </c>
       <c r="F98" s="4">
-        <v>873862122</v>
+        <v>994869736</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="J98" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -6330,31 +6329,31 @@
         <v>991324968</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C99" s="4">
-        <v>983974678</v>
+        <v>883971752</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>153</v>
+        <v>391</v>
       </c>
       <c r="F99" s="4">
-        <v>974624680</v>
+        <v>914356199</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="J99" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -6379,31 +6378,31 @@
         <v>991324968</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C100" s="4">
-        <v>983974694</v>
+        <v>983975259</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F100" s="4">
-        <v>974742985</v>
+        <v>974117002</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>144</v>
+        <v>290</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>145</v>
+        <v>291</v>
       </c>
       <c r="J100" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -6428,28 +6427,28 @@
         <v>991324968</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C101" s="4">
-        <v>983974694</v>
+        <v>983975259</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F101" s="4">
-        <v>996328112</v>
+        <v>974575396</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>144</v>
+        <v>293</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>145</v>
+        <v>294</v>
       </c>
       <c r="J101" s="4">
         <v>0</v>
@@ -6477,28 +6476,28 @@
         <v>991324968</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C102" s="4">
-        <v>883971752</v>
+        <v>983975259</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>392</v>
       </c>
       <c r="F102" s="4">
-        <v>974589214</v>
+        <v>899643992</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="J102" s="4">
         <v>1</v>
@@ -6526,28 +6525,28 @@
         <v>991324968</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C103" s="4">
-        <v>883971752</v>
+        <v>983975259</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>392</v>
       </c>
       <c r="F103" s="4">
-        <v>994869736</v>
+        <v>974633574</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="J103" s="4">
         <v>1</v>
@@ -6575,28 +6574,28 @@
         <v>991324968</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C104" s="4">
-        <v>883971752</v>
+        <v>983971709</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F104" s="4">
-        <v>914356199</v>
+        <v>974631768</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="J104" s="4">
         <v>1</v>
@@ -6624,31 +6623,31 @@
         <v>991324968</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C105" s="4">
-        <v>983975259</v>
+        <v>983971709</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F105" s="4">
-        <v>974117002</v>
+        <v>974632535</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="J105" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -6673,28 +6672,28 @@
         <v>991324968</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C106" s="4">
-        <v>983975259</v>
+        <v>983971709</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F106" s="4">
-        <v>974575396</v>
+        <v>974632543</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="J106" s="4">
         <v>0</v>
@@ -6722,31 +6721,31 @@
         <v>991324968</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C107" s="4">
-        <v>983975259</v>
+        <v>983971709</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F107" s="4">
-        <v>899643992</v>
+        <v>974116650</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="J107" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -6771,28 +6770,28 @@
         <v>991324968</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C108" s="4">
-        <v>983975259</v>
+        <v>983971709</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F108" s="4">
-        <v>974633574</v>
+        <v>974724960</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>296</v>
+        <v>220</v>
       </c>
       <c r="J108" s="4">
         <v>1</v>
@@ -6820,28 +6819,28 @@
         <v>991324968</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C109" s="4">
         <v>983971709</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F109" s="4">
-        <v>974631768</v>
+        <v>874632562</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="J109" s="4">
         <v>1</v>
@@ -6869,31 +6868,31 @@
         <v>991324968</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C110" s="4">
         <v>983971709</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F110" s="4">
-        <v>974632535</v>
+        <v>975326136</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="J110" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -6918,28 +6917,28 @@
         <v>991324968</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C111" s="4">
         <v>983971709</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F111" s="4">
-        <v>974632543</v>
+        <v>874631752</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="J111" s="4">
         <v>0</v>
@@ -6967,31 +6966,31 @@
         <v>991324968</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C112" s="4">
         <v>983971709</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F112" s="4">
-        <v>974116650</v>
+        <v>974725215</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="J112" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -7016,28 +7015,28 @@
         <v>991324968</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C113" s="4">
-        <v>983971709</v>
+        <v>983975267</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F113" s="4">
-        <v>974724960</v>
+        <v>983974155</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="J113" s="4">
         <v>1</v>
@@ -7065,31 +7064,31 @@
         <v>991324968</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C114" s="4">
-        <v>983971709</v>
+        <v>983975267</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F114" s="4">
-        <v>874632562</v>
+        <v>974568225</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="J114" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -7114,31 +7113,31 @@
         <v>991324968</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C115" s="4">
-        <v>983971709</v>
+        <v>983975267</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F115" s="4">
-        <v>975326136</v>
+        <v>974633159</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="J115" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -7163,31 +7162,31 @@
         <v>991324968</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C116" s="4">
-        <v>983971709</v>
+        <v>983975267</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F116" s="4">
-        <v>874631752</v>
+        <v>974798379</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="J116" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -7212,28 +7211,28 @@
         <v>991324968</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C117" s="4">
-        <v>983971709</v>
+        <v>983975267</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F117" s="4">
-        <v>974725215</v>
+        <v>974633191</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="J117" s="4">
         <v>1</v>
@@ -7257,32 +7256,32 @@
       <c r="AA117" s="4"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
-        <v>999</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>305</v>
+      <c r="A118" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C118" s="4">
-        <v>983974791</v>
+        <v>983975267</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="F118" s="4">
-        <v>974754118</v>
+        <v>974633221</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="J118" s="4">
         <v>1</v>
@@ -7306,32 +7305,32 @@
       <c r="AA118" s="4"/>
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
-        <v>999</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>305</v>
+      <c r="A119" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C119" s="4">
-        <v>983974791</v>
+        <v>983975267</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="F119" s="4">
-        <v>994958682</v>
+        <v>974568209</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="J119" s="4">
         <v>0</v>
@@ -7355,32 +7354,32 @@
       <c r="AA119" s="4"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
-        <v>999</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>305</v>
+      <c r="A120" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C120" s="4">
-        <v>983974791</v>
+        <v>983971768</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="F120" s="4">
-        <v>974753898</v>
+        <v>974633752</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>63</v>
+        <v>266</v>
       </c>
       <c r="J120" s="4">
         <v>1</v>
@@ -7404,35 +7403,35 @@
       <c r="AA120" s="4"/>
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
-        <v>999</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>305</v>
+      <c r="A121" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C121" s="4">
-        <v>983974791</v>
+        <v>983971768</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="F121" s="4">
-        <v>994974270</v>
+        <v>974633655</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>64</v>
+        <v>267</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>62</v>
+        <v>268</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="J121" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
@@ -7453,32 +7452,32 @@
       <c r="AA121" s="4"/>
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6">
-        <v>999</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>305</v>
+      <c r="A122" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C122" s="4">
-        <v>983975267</v>
+        <v>983971768</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F122" s="4">
-        <v>983974155</v>
+        <v>974633698</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="J122" s="4">
         <v>1</v>
@@ -7502,32 +7501,32 @@
       <c r="AA122" s="4"/>
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6">
-        <v>999</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>305</v>
+      <c r="A123" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C123" s="4">
-        <v>983975267</v>
+        <v>983971768</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F123" s="4">
-        <v>974568225</v>
+        <v>974703769</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="J123" s="4">
         <v>0</v>
@@ -7551,32 +7550,32 @@
       <c r="AA123" s="4"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6">
-        <v>999</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>305</v>
+      <c r="A124" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C124" s="4">
-        <v>983975267</v>
+        <v>983975240</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F124" s="4">
-        <v>974633159</v>
+        <v>974631091</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="J124" s="4">
         <v>1</v>
@@ -7600,35 +7599,35 @@
       <c r="AA124" s="4"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
-        <v>999</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>305</v>
+      <c r="A125" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C125" s="4">
-        <v>983975267</v>
+        <v>983975240</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F125" s="4">
-        <v>974798379</v>
+        <v>996891216</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="J125" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
@@ -7649,32 +7648,32 @@
       <c r="AA125" s="4"/>
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
-        <v>999</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>305</v>
+      <c r="A126" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C126" s="4">
-        <v>983975267</v>
+        <v>983975240</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F126" s="4">
-        <v>974633191</v>
+        <v>974595214</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="J126" s="4">
         <v>1</v>
@@ -7698,32 +7697,32 @@
       <c r="AA126" s="4"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6">
-        <v>999</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>305</v>
+      <c r="A127" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C127" s="4">
-        <v>983975267</v>
+        <v>983975240</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F127" s="4">
-        <v>974633221</v>
+        <v>974733013</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="J127" s="4">
         <v>1</v>
@@ -7747,32 +7746,32 @@
       <c r="AA127" s="4"/>
     </row>
     <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6">
-        <v>999</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>305</v>
+      <c r="A128" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C128" s="4">
-        <v>983975267</v>
+        <v>983975240</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F128" s="4">
-        <v>974568209</v>
+        <v>974595230</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>196</v>
+        <v>287</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="J128" s="4">
         <v>0</v>
@@ -7796,32 +7795,32 @@
       <c r="AA128" s="4"/>
     </row>
     <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6">
-        <v>999</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>305</v>
+      <c r="A129" s="4">
+        <v>883658752</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C129" s="4">
-        <v>983971768</v>
+        <v>983974899</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F129" s="4">
-        <v>974633752</v>
+        <v>974795639</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="J129" s="4">
         <v>1</v>
@@ -7845,32 +7844,32 @@
       <c r="AA129" s="4"/>
     </row>
     <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="6">
-        <v>999</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>305</v>
+      <c r="A130" s="4">
+        <v>883658752</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C130" s="4">
-        <v>983971768</v>
+        <v>983974899</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F130" s="4">
-        <v>974633655</v>
+        <v>974795396</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>266</v>
+        <v>23</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>267</v>
+        <v>24</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="J130" s="4">
         <v>1</v>
@@ -7894,32 +7893,32 @@
       <c r="AA130" s="4"/>
     </row>
     <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6">
-        <v>999</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>305</v>
+      <c r="A131" s="4">
+        <v>883658752</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C131" s="4">
-        <v>983971768</v>
+        <v>983974899</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F131" s="4">
-        <v>974633698</v>
+        <v>921837798</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="J131" s="4">
         <v>1</v>
@@ -7943,35 +7942,35 @@
       <c r="AA131" s="4"/>
     </row>
     <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6">
-        <v>999</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>305</v>
+      <c r="A132" s="4">
+        <v>883658752</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C132" s="4">
-        <v>983971768</v>
+        <v>983974899</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F132" s="4">
-        <v>974703769</v>
+        <v>921837755</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>274</v>
+        <v>28</v>
       </c>
       <c r="J132" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -7992,32 +7991,32 @@
       <c r="AA132" s="4"/>
     </row>
     <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6">
-        <v>999</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>305</v>
+      <c r="A133" s="4">
+        <v>883658752</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C133" s="4">
-        <v>983975240</v>
+        <v>983974899</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F133" s="4">
-        <v>974631091</v>
+        <v>821847052</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>276</v>
+        <v>30</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="J133" s="4">
         <v>1</v>
@@ -8041,35 +8040,35 @@
       <c r="AA133" s="4"/>
     </row>
     <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6">
-        <v>999</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>305</v>
+      <c r="A134" s="4">
+        <v>883658752</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C134" s="4">
-        <v>983975240</v>
+        <v>983974899</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F134" s="4">
-        <v>996891216</v>
+        <v>974795787</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>279</v>
+        <v>31</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="J134" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -8090,32 +8089,32 @@
       <c r="AA134" s="4"/>
     </row>
     <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6">
-        <v>999</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>305</v>
+      <c r="A135" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C135" s="4">
-        <v>983975240</v>
+        <v>894166762</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F135" s="4">
-        <v>974595214</v>
+        <v>974705788</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="J135" s="4">
         <v>1</v>
@@ -8139,32 +8138,32 @@
       <c r="AA135" s="4"/>
     </row>
     <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="6">
-        <v>999</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>305</v>
+      <c r="A136" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C136" s="4">
-        <v>983975240</v>
+        <v>894166762</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F136" s="4">
-        <v>974733013</v>
+        <v>974631326</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="J136" s="4">
         <v>1</v>
@@ -8188,32 +8187,32 @@
       <c r="AA136" s="4"/>
     </row>
     <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6">
-        <v>999</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>305</v>
+      <c r="A137" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C137" s="4">
-        <v>983975240</v>
+        <v>894166762</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F137" s="4">
-        <v>974595230</v>
+        <v>974606305</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="J137" s="4">
         <v>0</v>
@@ -8237,32 +8236,32 @@
       <c r="AA137" s="4"/>
     </row>
     <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="6">
-        <v>999</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>305</v>
+      <c r="A138" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C138" s="4">
-        <v>983974899</v>
+        <v>894166762</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="F138" s="4">
-        <v>974795639</v>
+        <v>974631385</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="J138" s="4">
         <v>1</v>
@@ -8286,32 +8285,32 @@
       <c r="AA138" s="4"/>
     </row>
     <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6">
-        <v>999</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>305</v>
+      <c r="A139" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C139" s="4">
-        <v>983974899</v>
+        <v>894166762</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="F139" s="4">
-        <v>974795396</v>
+        <v>974631407</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="J139" s="4">
         <v>1</v>
@@ -8335,32 +8334,32 @@
       <c r="AA139" s="4"/>
     </row>
     <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6">
-        <v>999</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>305</v>
+      <c r="A140" s="5">
+        <v>991324968</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C140" s="4">
-        <v>983974899</v>
+        <v>894166762</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="F140" s="4">
-        <v>921837798</v>
+        <v>874606162</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="J140" s="4">
         <v>1</v>
@@ -8388,28 +8387,28 @@
         <v>999</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C141" s="4">
-        <v>983974899</v>
+        <v>953164701</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="F141" s="4">
-        <v>921837755</v>
+        <v>973129856</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>28</v>
+        <v>341</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>26</v>
+        <v>309</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>27</v>
+        <v>342</v>
       </c>
       <c r="J141" s="4">
         <v>1</v>
@@ -8437,28 +8436,28 @@
         <v>999</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C142" s="4">
-        <v>983974899</v>
+        <v>953164701</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="F142" s="4">
-        <v>821847052</v>
+        <v>912419223</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>29</v>
+        <v>343</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>26</v>
+        <v>309</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>27</v>
+        <v>344</v>
       </c>
       <c r="J142" s="4">
         <v>1</v>
@@ -8486,28 +8485,28 @@
         <v>999</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C143" s="4">
-        <v>983974899</v>
+        <v>953164701</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="F143" s="4">
-        <v>974795787</v>
+        <v>974183749</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>30</v>
+        <v>345</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>26</v>
+        <v>309</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="J143" s="4">
         <v>1</v>
@@ -8535,28 +8534,28 @@
         <v>999</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C144" s="4">
-        <v>997005562</v>
+        <v>953164701</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>85</v>
+        <v>340</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="F144" s="4">
-        <v>974747545</v>
+        <v>918289593</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>97</v>
+        <v>347</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>98</v>
+        <v>309</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>99</v>
+        <v>348</v>
       </c>
       <c r="J144" s="4">
         <v>1</v>
@@ -8584,28 +8583,28 @@
         <v>999</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C145" s="4">
-        <v>983974724</v>
+        <v>953164701</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>119</v>
+        <v>340</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="F145" s="4">
-        <v>974743272</v>
+        <v>919749547</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>129</v>
+        <v>349</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="J145" s="4">
         <v>1</v>
@@ -8633,28 +8632,28 @@
         <v>999</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C146" s="4">
-        <v>997005562</v>
+        <v>953164701</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>85</v>
+        <v>340</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="F146" s="4">
-        <v>974747138</v>
+        <v>976343506</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>101</v>
+        <v>309</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>102</v>
+        <v>352</v>
       </c>
       <c r="J146" s="4">
         <v>1</v>
@@ -8682,31 +8681,31 @@
         <v>999</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C147" s="4">
-        <v>997005562</v>
+        <v>816085292</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="F147" s="4">
-        <v>912777294</v>
+        <v>982755999</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>103</v>
+        <v>336</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>101</v>
+        <v>309</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>102</v>
+        <v>337</v>
       </c>
       <c r="J147" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
@@ -8731,31 +8730,31 @@
         <v>999</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C148" s="4">
-        <v>997005562</v>
+        <v>816085292</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="F148" s="4">
-        <v>916126611</v>
+        <v>983084478</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>104</v>
+        <v>338</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>101</v>
+        <v>309</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>102</v>
+        <v>339</v>
       </c>
       <c r="J148" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
